--- a/zombie.xlsx
+++ b/zombie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Data bases</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>fraction_id</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
   <si>
     <t>current_sector</t>
@@ -687,15 +690,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>130320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1922400</xdr:colOff>
+      <xdr:colOff>1949040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -704,8 +707,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2960640" y="4581720"/>
-          <a:ext cx="1819080" cy="415080"/>
+          <a:off x="2987640" y="4572720"/>
+          <a:ext cx="1818720" cy="414720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,7 +765,7 @@
   <dimension ref="B1:Y35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6:P13"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,10 +1157,12 @@
       <c r="L11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="5"/>
@@ -1168,7 +1173,7 @@
       <c r="V11" s="24"/>
       <c r="W11" s="5"/>
       <c r="X11" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y11" s="26"/>
     </row>
@@ -1180,27 +1185,29 @@
       <c r="F12" s="0"/>
       <c r="H12" s="30"/>
       <c r="I12" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="16" t="n">
         <v>1000</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="N12" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
@@ -1208,10 +1215,10 @@
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X12" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="26"/>
     </row>
@@ -1222,26 +1229,26 @@
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" s="16" t="n">
         <v>6</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="5"/>
@@ -1281,7 +1288,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -1333,7 +1340,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39" t="n">
@@ -1341,7 +1348,7 @@
         <v>41.6666666666667</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="39"/>
       <c r="H17" s="5"/>
@@ -1390,7 +1397,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="39"/>
@@ -1681,7 +1688,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O6:P13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1707,7 +1714,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O6:P13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/zombie.xlsx
+++ b/zombie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Data bases</t>
   </si>
@@ -46,6 +46,9 @@
     <t>fraction.db</t>
   </si>
   <si>
+    <t>techTree.db</t>
+  </si>
+  <si>
     <t>moving in 2d world simple framework / grid</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>owner_id</t>
   </si>
   <si>
+    <t>??? Nie wiem czy jest sens, gdy id=owner_id</t>
+  </si>
+  <si>
     <t>residential</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>short</t>
   </si>
   <si>
+    <t>descripiton</t>
+  </si>
+  <si>
     <t>max_y</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>points</t>
   </si>
   <si>
+    <t>req0</t>
+  </si>
+  <si>
     <t>sector_start</t>
   </si>
   <si>
@@ -136,6 +148,9 @@
     <t>members</t>
   </si>
   <si>
+    <t>req1</t>
+  </si>
+  <si>
     <t>sector_end</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
     <t>ranking</t>
   </si>
   <si>
+    <t>req2</t>
+  </si>
+  <si>
     <t>sector_size          [unit]</t>
   </si>
   <si>
@@ -170,6 +188,9 @@
   </si>
   <si>
     <t>nature</t>
+  </si>
+  <si>
+    <t>lvl</t>
   </si>
   <si>
     <t>default time needed for travel over 1 unit [min]</t>
@@ -690,15 +711,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>130320</xdr:colOff>
+      <xdr:colOff>185040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1949040</xdr:colOff>
+      <xdr:colOff>2003040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -707,8 +728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2987640" y="4572720"/>
-          <a:ext cx="1818720" cy="414720"/>
+          <a:off x="3042360" y="4387680"/>
+          <a:ext cx="1818000" cy="383040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Y35"/>
+  <dimension ref="B1:AB35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,7 +803,7 @@
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="14.8542510121458"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="40.1255060728745"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.8542510121458"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.2834008097166"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.4251012145749"/>
@@ -791,7 +812,9 @@
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="14.8542510121458"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -820,6 +843,9 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0"/>
@@ -845,6 +871,9 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
@@ -886,8 +915,13 @@
         <v>8</v>
       </c>
       <c r="Y3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -911,6 +945,9 @@
       <c r="W4" s="5"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="n">
@@ -918,7 +955,7 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -940,6 +977,9 @@
       <c r="W5" s="5"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="12"/>
@@ -948,39 +988,44 @@
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="H6" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="5"/>
       <c r="O6" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="5"/>
       <c r="U6" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V6" s="24"/>
       <c r="W6" s="5"/>
       <c r="X6" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="26"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="12"/>
@@ -990,40 +1035,47 @@
       <c r="F7" s="0"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="16" t="n">
         <v>10000</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="5"/>
       <c r="O7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U7" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V7" s="24"/>
       <c r="W7" s="5"/>
       <c r="X7" s="26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" s="26"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
@@ -1031,38 +1083,43 @@
       <c r="F8" s="0"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="5"/>
       <c r="O8" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="27"/>
       <c r="U8" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V8" s="24"/>
       <c r="W8" s="5"/>
       <c r="X8" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y8" s="26"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
@@ -1070,38 +1127,43 @@
       <c r="F9" s="0"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J9" s="16" t="n">
         <v>10000</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="5"/>
       <c r="O9" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="27"/>
       <c r="U9" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V9" s="24"/>
       <c r="W9" s="5"/>
       <c r="X9" s="26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="26"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
@@ -1109,38 +1171,43 @@
       <c r="F10" s="0"/>
       <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J10" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="5"/>
       <c r="O10" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="27"/>
       <c r="U10" s="24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V10" s="24"/>
       <c r="W10" s="5"/>
       <c r="X10" s="26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y10" s="26"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
@@ -1148,21 +1215,21 @@
       <c r="F11" s="0"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J11" s="16" t="n">
         <v>100</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="5"/>
@@ -1173,9 +1240,14 @@
       <c r="V11" s="24"/>
       <c r="W11" s="5"/>
       <c r="X11" s="26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Y11" s="26"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
@@ -1185,29 +1257,29 @@
       <c r="F12" s="0"/>
       <c r="H12" s="30"/>
       <c r="I12" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J12" s="16" t="n">
         <v>1000</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
@@ -1215,40 +1287,45 @@
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="X12" s="26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y12" s="26"/>
-    </row>
-    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J13" s="16" t="n">
         <v>6</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="33" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="5"/>
@@ -1260,8 +1337,11 @@
       <c r="W13" s="35"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="29"/>
       <c r="D14" s="0"/>
@@ -1285,10 +1365,13 @@
       <c r="W14" s="5"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="36"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="37" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -1312,6 +1395,9 @@
       <c r="W15" s="5"/>
       <c r="X15" s="26"/>
       <c r="Y15" s="36"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="37"/>
@@ -1337,10 +1423,13 @@
       <c r="W16" s="5"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="36"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="38" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39" t="n">
@@ -1348,7 +1437,7 @@
         <v>41.6666666666667</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F17" s="39"/>
       <c r="H17" s="5"/>
@@ -1369,8 +1458,11 @@
       <c r="W17" s="5"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="39"/>
@@ -1394,10 +1486,13 @@
       <c r="W18" s="5"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="36"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="41" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="39"/>
@@ -1421,8 +1516,11 @@
       <c r="W19" s="5"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="36"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="39"/>
@@ -1446,8 +1544,11 @@
       <c r="W20" s="5"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="36"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="39"/>
@@ -1471,8 +1572,11 @@
       <c r="W21" s="5"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="36"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="39"/>
@@ -1496,8 +1600,11 @@
       <c r="W22" s="5"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="36"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="39"/>
@@ -1521,8 +1628,11 @@
       <c r="W23" s="5"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="36"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="39"/>
@@ -1546,8 +1656,11 @@
       <c r="W24" s="5"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="36"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="39"/>
@@ -1571,6 +1684,9 @@
       <c r="W25" s="5"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="36"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="40"/>
@@ -1643,7 +1759,7 @@
       <c r="F35" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="H1:Y2"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -1653,6 +1769,7 @@
     <mergeCell ref="R3:S5"/>
     <mergeCell ref="U3:V5"/>
     <mergeCell ref="X3:Y5"/>
+    <mergeCell ref="AA3:AB5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:H11"/>

--- a/zombie.xlsx
+++ b/zombie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Data bases</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>current_sector</t>
+  </si>
+  <si>
+    <t>może będzie wyliczany na bieżąco?</t>
   </si>
   <si>
     <t>ranking</t>
@@ -711,15 +714,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2003040</xdr:colOff>
+      <xdr:colOff>2029680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -728,8 +731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3042360" y="4387680"/>
-          <a:ext cx="1818000" cy="383040"/>
+          <a:off x="3069360" y="4378680"/>
+          <a:ext cx="1817640" cy="382680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,8 +788,8 @@
   </sheetPr>
   <dimension ref="B1:AB35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1231,7 +1234,9 @@
       <c r="O11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="20"/>
+      <c r="P11" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
@@ -1240,12 +1245,12 @@
       <c r="V11" s="24"/>
       <c r="W11" s="5"/>
       <c r="X11" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y11" s="26"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB11" s="16"/>
     </row>
@@ -1257,29 +1262,31 @@
       <c r="F12" s="0"/>
       <c r="H12" s="30"/>
       <c r="I12" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="16" t="n">
         <v>1000</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="Q12" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
@@ -1287,15 +1294,15 @@
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X12" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="26"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB12" s="16"/>
     </row>
@@ -1306,26 +1313,26 @@
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J13" s="16" t="n">
         <v>6</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="5"/>
@@ -1371,7 +1378,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -1429,7 +1436,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39" t="n">
@@ -1437,7 +1444,7 @@
         <v>41.6666666666667</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="39"/>
       <c r="H17" s="5"/>
@@ -1492,7 +1499,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="39"/>

--- a/zombie.xlsx
+++ b/zombie.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+  <si>
+    <t>Data bases</t>
+  </si>
   <si>
     <t>presentation of progress</t>
   </si>
@@ -24,6 +27,27 @@
     <t>main goal</t>
   </si>
   <si>
+    <t>constants.db</t>
+  </si>
+  <si>
+    <t>account.db</t>
+  </si>
+  <si>
+    <t>ship.db</t>
+  </si>
+  <si>
+    <t>modul.db</t>
+  </si>
+  <si>
+    <t>research.db</t>
+  </si>
+  <si>
+    <t>fraction.db</t>
+  </si>
+  <si>
+    <t>techTree.db</t>
+  </si>
+  <si>
     <t>moving in 2d world simple framework / grid</t>
   </si>
   <si>
@@ -193,33 +217,6 @@
   </si>
   <si>
     <t>pola, które są na razie zbędne, niech będą zerami</t>
-  </si>
-  <si>
-    <t>TABELA</t>
-  </si>
-  <si>
-    <t>constants</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>modul</t>
-  </si>
-  <si>
-    <t>Data base</t>
-  </si>
-  <si>
-    <t>research</t>
-  </si>
-  <si>
-    <t>fraction</t>
-  </si>
-  <si>
-    <t>techTree</t>
   </si>
 </sst>
 </file>
@@ -283,7 +280,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,14 +377,8 @@
         <bgColor rgb="FFE6E0EC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -434,25 +425,54 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,65 +551,14 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,8 +652,8 @@
       <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>855</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2029680</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
@@ -1035,36 +1004,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="13.85546875" style="1"/>
-    <col min="4" max="4" width="26.42578125" style="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="14.85546875" style="1"/>
-    <col min="9" max="9" width="19" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="14.85546875" style="1"/>
-    <col min="12" max="12" width="15.42578125" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="14.85546875" style="1"/>
-    <col min="15" max="15" width="16.5703125" style="1"/>
-    <col min="16" max="16" width="20.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1"/>
-    <col min="18" max="18" width="12.28515625" style="1"/>
-    <col min="19" max="19" width="7.42578125" style="1"/>
-    <col min="20" max="20" width="14.85546875" style="1"/>
-    <col min="21" max="21" width="9.5703125" style="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="14.85546875" style="1"/>
-    <col min="24" max="24" width="10.5703125" style="1"/>
-    <col min="25" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="10.140625" style="1"/>
-    <col min="28" max="1025" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="13.85546875" style="15"/>
+    <col min="4" max="4" width="26.42578125" style="15"/>
+    <col min="5" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="14.85546875" style="15"/>
+    <col min="9" max="9" width="19" style="15"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+    <col min="11" max="11" width="14.85546875" style="15"/>
+    <col min="12" max="12" width="15.42578125" style="15"/>
+    <col min="13" max="13" width="9.140625" style="15"/>
+    <col min="14" max="14" width="14.85546875" style="15"/>
+    <col min="15" max="15" width="16.5703125" style="15"/>
+    <col min="16" max="16" width="40.140625" style="15"/>
+    <col min="17" max="17" width="14.85546875" style="15"/>
+    <col min="18" max="18" width="12.28515625" style="15"/>
+    <col min="19" max="19" width="7.42578125" style="15"/>
+    <col min="20" max="20" width="14.85546875" style="15"/>
+    <col min="21" max="21" width="9.5703125" style="15"/>
+    <col min="22" max="22" width="9.140625" style="15"/>
+    <col min="23" max="23" width="14.85546875" style="15"/>
+    <col min="24" max="24" width="10.5703125" style="15"/>
+    <col min="25" max="26" width="9.140625" style="15"/>
+    <col min="27" max="27" width="10.140625" style="15"/>
+    <col min="28" max="1025" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1073,29 +1042,29 @@
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="H1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
+      <c r="H1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2"/>
@@ -1103,445 +1072,445 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="H3" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="32"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="7"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="11"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
     </row>
     <row r="5" spans="2:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
+      <c r="B5" s="5">
+        <v>41969</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="18"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="H6" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="20">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="6"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="28"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="18"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="4"/>
+      <c r="I7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="20">
         <v>10000</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB7" s="6"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="26"/>
+      <c r="T7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="28"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="18"/>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="H8" s="4"/>
+      <c r="I8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="20">
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB8" s="6"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="26"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="28"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="18"/>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="H9" s="4"/>
+      <c r="I9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="20">
         <v>10000</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="6"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="28"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="20"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="18"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="H10" s="4"/>
+      <c r="I10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="20">
         <v>1</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="6"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="28"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="18"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="H11" s="4"/>
+      <c r="I11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="20">
         <v>100</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB11" s="6"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="20"/>
     </row>
     <row r="12" spans="2:28" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="32"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="H12" s="33"/>
+      <c r="I12" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="20">
         <v>1000</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="29" t="s">
+      <c r="K12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" s="6"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B13"/>
@@ -1549,474 +1518,470 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="H13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="H13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="20">
         <v>6</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="K13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="C14" s="18"/>
+      <c r="C14" s="32"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="B15" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
     </row>
     <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="25">
+      <c r="B17" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39">
         <f>J7*J13/60/24</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="E17" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="B19" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="P30" s="1" t="s">
-        <v>58</v>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="P30" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:J5"/>
-    <mergeCell ref="L3:M5"/>
-    <mergeCell ref="O3:P5"/>
-    <mergeCell ref="R3:S5"/>
-    <mergeCell ref="U3:V5"/>
-    <mergeCell ref="X3:Y5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H1:AB2"/>
+  <mergeCells count="25">
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="B15:F16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="AA3:AB5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2027,16 +1992,19 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="B15:F16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:Y2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:J5"/>
+    <mergeCell ref="L3:M5"/>
+    <mergeCell ref="O3:P5"/>
+    <mergeCell ref="R3:S5"/>
+    <mergeCell ref="U3:V5"/>
+    <mergeCell ref="X3:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
